--- a/data/income_statement/2digits/size/18_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/18_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>18-Printing and reproduction of recorded media</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>18-Printing and reproduction of recorded media</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,638 +841,723 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1051433.72357</v>
+        <v>1031985.68266</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1259944.24647</v>
+        <v>1271917.28829</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>1563870.41164</v>
+        <v>1586802.71766</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1760412.8805</v>
+        <v>1763439.68271</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1867262.35713</v>
+        <v>1869949.07041</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>2095520.77739</v>
+        <v>2089351.35647</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>2193475.17678</v>
+        <v>2142491.37896</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>2264318.2929</v>
+        <v>2299529.07571</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>2754839.81324</v>
+        <v>2625904.01217</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>3673231.86664</v>
+        <v>3844435.72316</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>4068958.75324</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>4155650.92676</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>4835216.062</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>982719.03001</v>
+        <v>962974.13452</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1194773.128</v>
+        <v>1198753.69965</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1474461.18428</v>
+        <v>1499016.15162</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1660852.87153</v>
+        <v>1657671.53714</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1747859.58834</v>
+        <v>1750382.81966</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1969024.77455</v>
+        <v>1963814.96576</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>2011513.76367</v>
+        <v>1962717.21673</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>2097760.01775</v>
+        <v>2132556.53139</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>2533537.71604</v>
+        <v>2412558.71399</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>3330294.04958</v>
+        <v>3476699.21506</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>3590839.47244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>3678475.56773</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>4168093.96</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>55852.56572</v>
+        <v>55915.9898</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>52529.02081</v>
+        <v>60888.19945</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>68064.02321</v>
+        <v>69244.14766</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>83281.57340000001</v>
+        <v>89984.01983</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>98512.88087000001</v>
+        <v>99860.21058</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>102238.42753</v>
+        <v>102001.73642</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>141587.05646</v>
+        <v>139737.77383</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>131098.2261</v>
+        <v>127964.82918</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>182859.01762</v>
+        <v>171423.21388</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>272565.80042</v>
+        <v>298108.77283</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>394963.1737</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>391404.27091</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>594140.405</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>12862.12784</v>
+        <v>13095.55834</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>12642.09766</v>
+        <v>12275.38919</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>21345.20415</v>
+        <v>18542.41838</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>16278.43557</v>
+        <v>15784.12574</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>20889.88792</v>
+        <v>19706.04017</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>24257.57531</v>
+        <v>23534.65429</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>40374.35665</v>
+        <v>40036.3884</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>35460.04905</v>
+        <v>39007.71514</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>38443.07958</v>
+        <v>41922.08429999999</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>70372.01664</v>
+        <v>69627.73526999999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>83156.10709999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>85771.08812</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>72981.697</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>35860.63465</v>
+        <v>34404.52329</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>25285.33324</v>
+        <v>24380.68803</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>34905.99681</v>
+        <v>36007.68386</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>39612.53977</v>
+        <v>40746.96769</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>45864.19293</v>
+        <v>55024.48147</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>45659.29955</v>
+        <v>54872.78254</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>60169.3693</v>
+        <v>62877.38794</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>56080.80413</v>
+        <v>70568.14851</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>96707.35591</v>
+        <v>91319.659</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>128002.10236</v>
+        <v>128718.98206</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>88800.50062000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>87161.86745000001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>108927.291</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>27292.2094</v>
+        <v>26774.96807</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>14381.23181</v>
+        <v>13507.46805</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>18861.63466</v>
+        <v>19428.09442</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>22457.87324</v>
+        <v>23638.25081</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>20254.53657</v>
+        <v>27041.15301</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>25267.27892</v>
+        <v>30308.22195</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>25830.76055</v>
+        <v>28106.97797</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>28915.21121</v>
+        <v>39726.12098</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>53248.98441999999</v>
+        <v>50414.51019</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>80225.42457999999</v>
+        <v>80194.04474</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>77074.97674</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>75682.3097</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>93056.06200000001</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>7876.655019999999</v>
+        <v>6946.03825</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>9553.22493</v>
+        <v>9446.75426</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>13072.8733</v>
+        <v>12863.25059</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>15196.1821</v>
+        <v>15188.81544</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>24220.24328</v>
+        <v>26655.43488</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>18477.60234</v>
+        <v>22343.66138</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>31537.39086</v>
+        <v>31997.57532</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>25306.69421</v>
+        <v>28740.62876</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>39352.41257</v>
+        <v>39271.46835</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>43608.17022</v>
+        <v>43637.0535</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>6724.61187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>6029.56855</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>6947.874</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>691.77023</v>
+        <v>683.51697</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>1350.8765</v>
+        <v>1426.46572</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>2971.48885</v>
+        <v>3716.33885</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>1958.48443</v>
+        <v>1919.90144</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>1389.41308</v>
+        <v>1327.89358</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>1914.41829</v>
+        <v>2220.89921</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>2801.21789</v>
+        <v>2772.83465</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>1858.89871</v>
+        <v>2101.39877</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>4105.95892</v>
+        <v>1633.68046</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>4168.50756</v>
+        <v>4887.88382</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>5000.91201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>5449.9892</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>8923.355</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1015573.08892</v>
+        <v>997581.15937</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1234658.91323</v>
+        <v>1247536.60026</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>1528964.41483</v>
+        <v>1550795.0338</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1720800.34073</v>
+        <v>1722692.71502</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1821398.1642</v>
+        <v>1814924.58894</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2049861.47784</v>
+        <v>2034478.57393</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>2133305.80748</v>
+        <v>2079613.99102</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>2208237.48877</v>
+        <v>2228960.9272</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>2658132.45733</v>
+        <v>2534584.35317</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>3545229.76428</v>
+        <v>3715716.7411</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>3980158.25262</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>4068489.05931</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>4726288.771</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>829579.8236500002</v>
+        <v>810574.00163</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1020972.16763</v>
+        <v>1032444.74209</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1290923.84098</v>
+        <v>1297274.18124</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1449716.97199</v>
+        <v>1451531.16037</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1518261.93137</v>
+        <v>1498282.62462</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1722611.59843</v>
+        <v>1694446.24921</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1800331.25418</v>
+        <v>1752291.70874</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1831022.1948</v>
+        <v>1852042.25443</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>2174982.32961</v>
+        <v>2104905.23078</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>2969838.27258</v>
+        <v>3149086.00808</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>3308437.09798</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>3379731.21415</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>3958297.111</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>599105.7853400001</v>
+        <v>603652.26356</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>762206.04729</v>
+        <v>766283.78929</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>902571.68103</v>
+        <v>922979.42579</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>983572.3728400001</v>
+        <v>1026367.07974</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1143572.84886</v>
+        <v>1171965.788</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1080605.85029</v>
+        <v>1094296.18517</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1236046.6751</v>
+        <v>1246061.63539</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1344073.22635</v>
+        <v>1387475.99893</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>1516502.76591</v>
+        <v>1536232.24734</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>2442111.81608</v>
+        <v>2614699.14089</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>2501885.59262</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>2577211.25519</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>2773970.904</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>129955.84403</v>
+        <v>119999.11057</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>130522.56439</v>
+        <v>154660.07204</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>195006.52718</v>
+        <v>198222.09371</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>235644.21376</v>
+        <v>220684.39985</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>166746.35191</v>
+        <v>144642.6367</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>345214.15096</v>
+        <v>329559.39632</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>332279.27162</v>
+        <v>294677.59045</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>265093.39656</v>
+        <v>268407.61213</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>396677.84941</v>
+        <v>345466.16974</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>218482.76476</v>
+        <v>188803.81368</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>455133.99227</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>452469.99579</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>721490.764</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>98037.61676999999</v>
+        <v>84363.96165</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>124481.5186</v>
+        <v>107771.76318</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>188191.89951</v>
+        <v>171004.56964</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>220966.93156</v>
+        <v>195042.48572</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>200249.51087</v>
+        <v>174548.15335</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>287230.62662</v>
+        <v>260924.41205</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>215062.03572</v>
+        <v>195081.72047</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>209582.67882</v>
+        <v>183832.10596</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>256518.1087</v>
+        <v>216516.5449</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>292910.34301</v>
+        <v>329539.31313</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>327747.67886</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>326380.12894</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>454501.752</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>2480.57751</v>
+        <v>2558.66585</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>3762.03735</v>
+        <v>3729.11758</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>5153.73326</v>
+        <v>5068.0921</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>9533.45383</v>
+        <v>9437.19506</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>7693.219730000001</v>
+        <v>7126.04657</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>9560.97056</v>
+        <v>9666.25567</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>16943.27174</v>
+        <v>16470.76243</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>12272.89307</v>
+        <v>12326.53741</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>5283.60559</v>
+        <v>6690.2688</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>16333.34873</v>
+        <v>16043.74038</v>
       </c>
       <c r="M18" s="48" t="n">
         <v>23669.83423</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>8333.691000000001</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>185993.26527</v>
+        <v>187007.15774</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>213686.7456</v>
+        <v>215091.85817</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>238040.57385</v>
+        <v>253520.85256</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>271083.36874</v>
+        <v>271161.5546499999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>303136.23283</v>
+        <v>316641.96432</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>327249.8794100001</v>
+        <v>340032.32472</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>332974.5533</v>
+        <v>327322.28228</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>377215.2939700001</v>
+        <v>376918.67277</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>483150.12772</v>
+        <v>429679.12239</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>575391.4917</v>
+        <v>566630.7330199999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>671721.15464</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>688757.8451599999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>767991.66</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>120649.00355</v>
+        <v>119832.08128</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>126725.95183</v>
+        <v>129185.40028</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>156629.47787</v>
+        <v>159825.38727</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>177381.73788</v>
+        <v>175086.38999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>196240.51267</v>
+        <v>190998.3263</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>202412.12449</v>
+        <v>210554.71606</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>222538.36107</v>
+        <v>221825.62943</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>266717.78847</v>
+        <v>266297.39907</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>313843.66169</v>
+        <v>270419.13202</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>315695.53034</v>
+        <v>323898.799</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>366374.1959</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>363183.05837</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>407442.01</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1234.77066</v>
@@ -1580,25 +1566,25 @@
         <v>104.55292</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>127.63055</v>
+        <v>39.51849</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>5.75159</v>
+        <v>9.12773</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>9.97978</v>
+        <v>0</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>18.47236</v>
+        <v>0</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>382.26622</v>
+        <v>376.66227</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>1165.37348</v>
+        <v>902.1649399999999</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>1601.55316</v>
+        <v>1562.50457</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>440.56902</v>
@@ -1606,194 +1592,219 @@
       <c r="M21" s="48" t="n">
         <v>38.81609</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>24.364</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>34204.27496</v>
+        <v>30338.03092</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>35541.30029</v>
+        <v>35126.55899</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>45372.03051</v>
+        <v>46017.78828</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>58388.53096</v>
+        <v>56384.32406</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>56500.83235</v>
+        <v>57164.34121</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>52359.54337</v>
+        <v>60872.81181</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>62622.11001</v>
+        <v>69883.1657</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>79800.03067000001</v>
+        <v>85887.28418999999</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>92904.2904</v>
+        <v>81905.56514000001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>108446.89553</v>
+        <v>115477.84931</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>132605.68325</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>135545.06089</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>145807.123</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>85209.95793</v>
+        <v>88259.2797</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>91080.09862</v>
+        <v>93954.28837000001</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>111129.81681</v>
+        <v>113768.0805</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>118987.45533</v>
+        <v>118692.9382</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>139729.70054</v>
+        <v>133833.98509</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>150034.10876</v>
+        <v>149681.90425</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>159533.98484</v>
+        <v>151565.80146</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>185752.38432</v>
+        <v>179507.94994</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>219337.81813</v>
+        <v>186951.06231</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>206808.06579</v>
+        <v>207980.38067</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>233729.69656</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>227599.18139</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>261610.523</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>65344.26172</v>
+        <v>67175.07646000001</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>86960.79376999999</v>
+        <v>85906.45789000001</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>81411.09598</v>
+        <v>93695.46529000001</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>93701.63086</v>
+        <v>96075.16465999999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>106895.72016</v>
+        <v>125643.63802</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>124837.75492</v>
+        <v>129477.60866</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>110436.19223</v>
+        <v>105496.65285</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>110497.5055</v>
+        <v>110621.2737</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>169306.46603</v>
+        <v>159259.99037</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>259695.96136</v>
+        <v>242731.93402</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>305346.95874</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>325574.78679</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>360549.65</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>19503.15309</v>
+        <v>20870.33956</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>22805.36583</v>
+        <v>27781.84111</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>33108.10226</v>
+        <v>37198.34143</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>32433.89293</v>
+        <v>31181.31135</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>43125.39695</v>
+        <v>47528.09899</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>40668.44820000001</v>
+        <v>35994.36658</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>47377.61815</v>
+        <v>50460.54197999999</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>41533.11967</v>
+        <v>40528.84807</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>53995.59404</v>
+        <v>55755.11972</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>200848.58915</v>
+        <v>216576.05935</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>129796.59382</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>130160.29657</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>189544.263</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>21.39865</v>
+        <v>19.66492</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>185.06883</v>
+        <v>184.74885</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>172.06189</v>
+        <v>153.94049</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>335.10756</v>
+        <v>18.72313</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>558.28788</v>
+        <v>168.28788</v>
       </c>
       <c r="H26" s="48" t="n">
         <v>77.72078999999999</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>144.6876</v>
+        <v>140.44014</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>789.04268</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>4070.28998</v>
+        <v>0</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>707.68683</v>
@@ -1801,17 +1812,22 @@
       <c r="M26" s="48" t="n">
         <v>2375.36853</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>347.986</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>4.498069999999999</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>74.14763000000001</v>
+        <v>0</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>59.04935</v>
@@ -1840,206 +1856,236 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>164.985</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>2186.01668</v>
+        <v>2300.02597</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>2746.64311</v>
+        <v>3079.42763</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>4471.08204</v>
+        <v>5108.28454</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>3895.93102</v>
+        <v>4039.80928</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>5087.031950000001</v>
+        <v>5796.01432</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>6925.6754</v>
+        <v>5190.12466</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>6379.86395</v>
+        <v>13149.16555</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>5963.41452</v>
+        <v>5124.2954</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>7650.595590000001</v>
+        <v>11241.7829</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>27339.7515</v>
+        <v>31281.97542</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>23653.31161</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>28409.40216</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>19311.013</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>14.90636</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>24.99883</v>
+        <v>24.42828</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>89.8047</v>
+        <v>14.53931</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>8.097109999999999</v>
+        <v>16.93998</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>133.70399</v>
+        <v>25.40961</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>313.64658</v>
+        <v>74.74542</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>126.9322</v>
+        <v>137.01964</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>7.07883</v>
+        <v>11.84524</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>59.43221</v>
+        <v>73.02995</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>3177.41177</v>
+        <v>3173.19067</v>
       </c>
       <c r="M29" s="48" t="n">
         <v>154.98768</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>76.48999999999999</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>845.0535</v>
+        <v>841.13311</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>1280.57887</v>
+        <v>539.75757</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>526.82033</v>
+        <v>1143.87293</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>946.47727</v>
+        <v>1081.47367</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>2569.2229</v>
+        <v>2537.2959</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>937.918</v>
+        <v>1018.45166</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>504.54034</v>
+        <v>442.27851</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>530.18154</v>
+        <v>568.90067</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>747.21948</v>
+        <v>808.2459</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>1496.14576</v>
+        <v>1482.71704</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>1980.95446</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>1965.83796</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>8952.030000000001</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>312.26206</v>
+        <v>298.01132</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>94.44316000000001</v>
+        <v>90.69797</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>469.26025</v>
+        <v>2467.69557</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>170.6701</v>
+        <v>668.48463</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>1078.81694</v>
+        <v>438.67225</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>421.39083</v>
+        <v>142.51057</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>228.73351</v>
+        <v>502.54292</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>204.20113</v>
+        <v>174.03298</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>703.72084</v>
+        <v>2052.52183</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>1893.87842</v>
+        <v>1892.82195</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>1893.62401</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>2409.151</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>11058.25827</v>
+        <v>13321.06666</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>11867.32364</v>
+        <v>18001.32858</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>19797.61196</v>
+        <v>20148.82147</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>13726.95869</v>
+        <v>14218.76653</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>16602.44293</v>
+        <v>20980.1351</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>17730.5811</v>
+        <v>17184.1725</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>27877.91456</v>
+        <v>26776.68081</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>17402.49385</v>
+        <v>18665.00346</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>22648.81602</v>
+        <v>23140.2242</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>140615.90355</v>
+        <v>150099.22974</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>65554.73532000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>64178.61523</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>113228.938</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>6.644399999999999</v>
@@ -2048,7 +2094,7 @@
         <v>25.75404</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>65.88958</v>
+        <v>759.30823</v>
       </c>
       <c r="F33" s="48" t="n">
         <v>341.37444</v>
@@ -2063,22 +2109,27 @@
         <v>1177.82804</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>1598.89422</v>
+        <v>1261.66275</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>1746.33953</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>2905.39854</v>
+        <v>7005.32103</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>8347.50311</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>9950.000980000001</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>18571.174</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2087,10 +2138,10 @@
         <v>0</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>1.16089</v>
+        <v>0</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>0.9831299999999999</v>
+        <v>0</v>
       </c>
       <c r="G34" s="48" t="n">
         <v>0</v>
@@ -2113,167 +2164,192 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>5054.115100000001</v>
+        <v>4064.38875</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>6506.40772</v>
+        <v>5835.69819</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>7455.361269999999</v>
+        <v>7342.82954</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>12996.87582</v>
+        <v>10784.3219</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>16362.77045</v>
+        <v>16849.16402</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>12653.88534</v>
+        <v>10699.01082</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>10886.00473</v>
+        <v>8083.473150000001</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>15026.38851</v>
+        <v>13922.6405</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>16352.58434</v>
+        <v>16676.37936</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>22702.09491</v>
+        <v>20922.7988</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>25836.1091</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>21232.46002</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>26482.496</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>16339.80045</v>
+        <v>18914.03643</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>17181.79561</v>
+        <v>20234.9441</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>35758.96971</v>
+        <v>39064.21062</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>22630.58103</v>
+        <v>23430.26449</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>41874.24617</v>
+        <v>53806.06514</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>25773.05788</v>
+        <v>26156.01204</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>37171.42567</v>
+        <v>36119.9501</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>35035.767</v>
+        <v>37983.20107</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>44644.47437</v>
+        <v>45087.54337</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>182553.54232</v>
+        <v>209743.55592</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>105433.19584</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>106711.32827</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>145038.012</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>594.09614</v>
+        <v>521.3059500000001</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>870.4258100000001</v>
+        <v>813.7403</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>1682.11982</v>
+        <v>1648.04395</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>706.16369</v>
+        <v>471.48009</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>587.4376</v>
+        <v>577.1928399999999</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>401.08877</v>
+        <v>394.80031</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>891.1655500000001</v>
+        <v>459.11584</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>416.08505</v>
+        <v>302.06667</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>678.99368</v>
+        <v>620.23996</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>267.96718</v>
+        <v>267.13944</v>
       </c>
       <c r="M37" s="48" t="n">
         <v>309.46041</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>1185.309</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>3637.30205</v>
+        <v>5365.85272</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>4220.35691</v>
+        <v>4300.48572</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1935.07179</v>
+        <v>2248.454</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>5300.406690000001</v>
+        <v>5386.42833</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>4341.06452</v>
+        <v>10669.34125</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>2518.93555</v>
+        <v>2675.32686</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>4151.58811</v>
+        <v>3189.62171</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>3381.7298</v>
+        <v>3349.87305</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>4294.45483</v>
+        <v>4131.62511</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>9530.721089999999</v>
+        <v>11370.20917</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>20795.1097</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>25413.79294</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>13706.548</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>14.03</v>
@@ -2288,16 +2364,16 @@
         <v>0.35318</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>683.44561</v>
+        <v>78.71633</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>5.59232</v>
+        <v>0</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>55.16648</v>
+        <v>73.95357000000001</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>54.58752</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>166.848</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>10676.8438</v>
+        <v>12430.4597</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>10294.96826</v>
+        <v>13582.00216</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>30639.07307</v>
+        <v>33508.0079</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>11066.38337</v>
+        <v>12488.12384</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>28203.86785</v>
+        <v>32194.89488</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>17823.74166</v>
+        <v>17147.72678</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>28485.82054</v>
+        <v>29195.82449</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>25517.47307</v>
+        <v>28145.61259</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>32835.63472</v>
+        <v>33624.49105</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>161120.63989</v>
+        <v>181187.26413</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>66319.49975</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>65692.84328</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>102859.153</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>17.49417</v>
@@ -2360,7 +2446,7 @@
         <v>53.63114</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>123.27668</v>
+        <v>875.10329</v>
       </c>
       <c r="F41" s="48" t="n">
         <v>545.1410699999999</v>
@@ -2381,16 +2467,21 @@
         <v>2041.68233</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>6442.85092</v>
+        <v>11530.46775</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>9434.510910000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>16352.095</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2399,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>44.04881</v>
+        <v>0</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>0</v>
@@ -2425,155 +2516,175 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>1400.03429</v>
+        <v>564.8938900000001</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1742.41349</v>
+        <v>1485.08478</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1330.37143</v>
+        <v>779.59337</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>5012.13303</v>
+        <v>4538.737980000001</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>7024.826849999999</v>
+        <v>9252.3161</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>3398.69227</v>
+        <v>4307.55846</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1938.86012</v>
+        <v>1576.98903</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>4298.035059999999</v>
+        <v>4744.41765</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>4739.12129</v>
+        <v>4614.9174</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>5191.363240000001</v>
+        <v>5388.47543</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>8574.61507</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>5860.72073</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>10768.059</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>32489.6529</v>
+        <v>31847.66661</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>29507.11026</v>
+        <v>30498.12479</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>44642.57447</v>
+        <v>43953.95078</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>43161.88070999999</v>
+        <v>40554.72622</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>46286.65489</v>
+        <v>43448.12754</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>55901.48667</v>
+        <v>51848.05055</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>69280.91267000001</v>
+        <v>69597.40470999999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>78545.06027</v>
+        <v>80496.51325</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>91174.47283</v>
+        <v>86056.88082999999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>170554.4543</v>
+        <v>240767.91317</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>192594.44306</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>152185.92925</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>136360.778</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>30946.71524</v>
+        <v>31130.03893</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>28673.13756</v>
+        <v>29291.17718</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>42084.90269</v>
+        <v>41456.09127</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>41307.8164</v>
+        <v>38908.69014</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>45841.60192</v>
+        <v>43035.68664</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>55735.15896</v>
+        <v>51612.01776</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>68558.03455</v>
+        <v>69156.94229000001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>77524.22778999999</v>
+        <v>79833.38340999999</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>88851.32882</v>
+        <v>84200.69203000001</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>169850.48586</v>
+        <v>240063.94473</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>191966.03965</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>151557.52584</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>132186.022</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>1542.93766</v>
+        <v>717.6276800000001</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>833.9726999999999</v>
+        <v>1206.94761</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>2557.67178</v>
+        <v>2497.85951</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>1854.06431</v>
+        <v>1646.03608</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>445.05297</v>
+        <v>412.4409</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>166.32771</v>
+        <v>236.03279</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>722.87812</v>
+        <v>440.46242</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>1020.83248</v>
+        <v>663.1298399999999</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>2323.14401</v>
+        <v>1856.1888</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>703.96844</v>
@@ -2581,437 +2692,495 @@
       <c r="M46" s="48" t="n">
         <v>628.40341</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>4174.756</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>36017.96146</v>
+        <v>37283.71298</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>63077.25373</v>
+        <v>62955.23011</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>34117.65406</v>
+        <v>47875.64532</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>60343.06205</v>
+        <v>63271.4853</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>61860.21605</v>
+        <v>75917.54433</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>83831.65857</v>
+        <v>87467.91265000001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>51361.47204</v>
+        <v>50239.84002</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>38449.7979</v>
+        <v>32670.40745</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>87483.11287000001</v>
+        <v>83870.68588999999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>107436.55389</v>
+        <v>8796.52428</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>137115.91366</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>196837.82584</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>268695.123</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>7947.360029999999</v>
+        <v>25006.87788</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>8860.410189999999</v>
+        <v>8287.179610000001</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>15017.13228</v>
+        <v>20995.49926</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>20551.09584</v>
+        <v>28308.4844</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>12214.03866</v>
+        <v>9828.35967</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>13711.67531</v>
+        <v>13837.51264</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>24667.2831</v>
+        <v>15113.34077</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>35250.06187</v>
+        <v>24497.86104</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>17476.77146</v>
+        <v>15225.2463</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>26238.31255</v>
+        <v>25951.65385</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>57683.11397</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>56735.33186</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>55873.805</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>27.41854</v>
+        <v>90.64394</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>0</v>
+        <v>11.39</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>705.6640500000001</v>
+        <v>687.9803900000001</v>
       </c>
       <c r="F49" s="48" t="n">
         <v>125.9188</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>380.99466</v>
+        <v>172.11535</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>0.13454</v>
+        <v>42.28564</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>1.47244</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>22.54646</v>
+        <v>3.29447</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>83.09435000000001</v>
+        <v>381.54443</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>54.59476</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>64.07465000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>64.03305</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>931.412</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>7919.94149</v>
+        <v>24916.23394</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>8860.410189999999</v>
+        <v>8275.78961</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>14311.46823</v>
+        <v>20307.51887</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>20425.17704</v>
+        <v>28182.5656</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>11833.044</v>
+        <v>9656.24432</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>13711.54077</v>
+        <v>13795.227</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>24665.81066</v>
+        <v>15111.86833</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>35227.51541</v>
+        <v>24494.56657</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>17393.67711</v>
+        <v>14843.70187</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>26183.71779</v>
+        <v>25897.05909</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>57619.03932</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>56671.29881</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>54942.393</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>6365.38417</v>
+        <v>8588.789989999997</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>5262.196980000001</v>
+        <v>6556.391799999999</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>58363.05998999999</v>
+        <v>63901.8753</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>9015.160220000002</v>
+        <v>8516.03537</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>11897.48342</v>
+        <v>11728.19789</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>22070.37639</v>
+        <v>37524.11695</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>10121.64602</v>
+        <v>9608.432220000001</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>51782.88744999999</v>
+        <v>48604.99036</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>15672.74231</v>
+        <v>13189.52654</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>53596.78385</v>
+        <v>52870.41329</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>18627.23725</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>32193.53606</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>28676.741</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>132.13536</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>55.935</v>
+        <v>1132.56343</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>818.95654</v>
+        <v>681.0413299999999</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>251.5129</v>
+        <v>733.04836</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>1694.60254</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>312.04285</v>
+        <v>185.13847</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>779.35749</v>
+        <v>629.18621</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>0.3262</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>206.40722</v>
+        <v>153.62107</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>7143.86522</v>
+        <v>7166.27618</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1494.01008</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>15958.74344</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>265.688</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>50.09114999999999</v>
+        <v>83.79501999999999</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>700.27373</v>
+        <v>305.31189</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>385.1151</v>
+        <v>144.83263</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>605.18249</v>
+        <v>621.6447900000001</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>288.56372</v>
+        <v>330.43874</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>918.61357</v>
+        <v>794.46624</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>440.03069</v>
+        <v>358.5024</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>4067.87511</v>
+        <v>3998.56398</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>1371.26568</v>
+        <v>1359.98782</v>
       </c>
       <c r="L53" s="48" t="n">
         <v>351.90552</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>408.00649</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>10.93517</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>902.587</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>6183.15766</v>
+        <v>8372.85961</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>4505.98825</v>
+        <v>5118.51648</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>57158.98835</v>
+        <v>63076.00134</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>8158.46483</v>
+        <v>7161.34222</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>9914.317160000001</v>
+        <v>9703.15661</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>20839.71997</v>
+        <v>36544.51224</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>8902.25784</v>
+        <v>8620.74361</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>47714.68614</v>
+        <v>44606.10018</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>14095.06941</v>
+        <v>11675.91765</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>46101.01311</v>
+        <v>45352.23159</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>16725.22068</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>16223.85745</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>27508.466</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>37599.93732</v>
+        <v>53701.80087</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>66675.46694</v>
+        <v>64686.01792</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-9228.273649999999</v>
+        <v>4969.26928</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>71878.99767</v>
+        <v>83063.93433</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>62176.77129</v>
+        <v>74017.70611</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>75472.95749</v>
+        <v>63781.30834</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>65907.10912000001</v>
+        <v>55744.74857</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>21916.97232</v>
+        <v>8563.278130000001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>89287.14202000001</v>
+        <v>85906.40565</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>80078.08259000001</v>
+        <v>-18122.23516</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>176171.79038</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>221379.62164</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>295892.187</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>9588.250840000002</v>
+        <v>9747.830190000001</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>12909.55757</v>
+        <v>12469.00616</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>12140.74788</v>
+        <v>14925.07412</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>12623.70522</v>
+        <v>14210.61956</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>14972.11195</v>
+        <v>16844.15764</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>16582.73163</v>
+        <v>16635.69586</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>14408.92746</v>
+        <v>13023.13026</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>13121.48452</v>
+        <v>12791.53305</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>22256.80585</v>
+        <v>20029.69223</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>34803.65877</v>
+        <v>35884.68191</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>48276.49559000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>46600.47345</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>57890.87</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>28011.68648</v>
+        <v>43953.97068</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>53765.90936999999</v>
+        <v>52217.01176</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-21369.02153</v>
+        <v>-9955.804840000001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>59255.29245</v>
+        <v>68853.31477</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>47204.65934000001</v>
+        <v>57173.54847</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>58890.22586</v>
+        <v>47145.61248</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>51498.18165999999</v>
+        <v>42721.61831000001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>8795.487800000001</v>
+        <v>-4228.25492</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>67030.33617</v>
+        <v>65876.71342</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>45274.42382</v>
+        <v>-54006.91707</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>127895.29479</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>174779.14819</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>238001.317</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="D59" s="35" t="n">
+        <v>115</v>
+      </c>
+      <c r="E59" s="35" t="n">
+        <v>143</v>
+      </c>
+      <c r="F59" s="35" t="n">
         <v>151</v>
       </c>
-      <c r="E59" s="35" t="n">
-        <v>178</v>
-      </c>
-      <c r="F59" s="35" t="n">
-        <v>203</v>
-      </c>
       <c r="G59" s="35" t="n">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>182</v>
+        <v>135</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>216</v>
+        <v>145</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>96</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>